--- a/data/distributor_location.xlsx
+++ b/data/distributor_location.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\tickin-backend\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85D512A-548F-4C71-8FDD-7A5C46575BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="133">
   <si>
     <t>Location</t>
   </si>
@@ -311,13 +317,115 @@
   </si>
   <si>
     <t>93441 29366</t>
+  </si>
+  <si>
+    <t>distributorCode</t>
+  </si>
+  <si>
+    <t>D001</t>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>D005</t>
+  </si>
+  <si>
+    <t>D006</t>
+  </si>
+  <si>
+    <t>D007</t>
+  </si>
+  <si>
+    <t>D008</t>
+  </si>
+  <si>
+    <t>D009</t>
+  </si>
+  <si>
+    <t>D010</t>
+  </si>
+  <si>
+    <t>D011</t>
+  </si>
+  <si>
+    <t>D012</t>
+  </si>
+  <si>
+    <t>D013</t>
+  </si>
+  <si>
+    <t>D014</t>
+  </si>
+  <si>
+    <t>D015</t>
+  </si>
+  <si>
+    <t>D016</t>
+  </si>
+  <si>
+    <t>D017</t>
+  </si>
+  <si>
+    <t>D018</t>
+  </si>
+  <si>
+    <t>D019</t>
+  </si>
+  <si>
+    <t>D020</t>
+  </si>
+  <si>
+    <t>D021</t>
+  </si>
+  <si>
+    <t>D022</t>
+  </si>
+  <si>
+    <t>D023</t>
+  </si>
+  <si>
+    <t>D024</t>
+  </si>
+  <si>
+    <t>D025</t>
+  </si>
+  <si>
+    <t>D026</t>
+  </si>
+  <si>
+    <t>D027</t>
+  </si>
+  <si>
+    <t>D028</t>
+  </si>
+  <si>
+    <t>D029</t>
+  </si>
+  <si>
+    <t>D030</t>
+  </si>
+  <si>
+    <t>D031</t>
+  </si>
+  <si>
+    <t>D032</t>
+  </si>
+  <si>
+    <t>D033</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +437,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -369,24 +483,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -424,7 +547,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -458,6 +581,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -492,9 +616,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -667,490 +792,601 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>42</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>46</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>48</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>16</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>49</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>50</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17">
         <v>2</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>51</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18">
         <v>2</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>52</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19">
         <v>2</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>51</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>53</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21">
         <v>3</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>23</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>54</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22">
         <v>3</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>24</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>55</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23">
         <v>3</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>25</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>56</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24">
         <v>3</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>57</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25">
         <v>3</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>27</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>58</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26">
         <v>4</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>59</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27">
         <v>4</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>29</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>60</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28">
         <v>4</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>61</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29">
         <v>4</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>31</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>62</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30">
         <v>4</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>32</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>63</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31">
         <v>4</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>33</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>63</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32">
         <v>4</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>34</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>64</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33">
         <v>4</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>35</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>65</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34">
         <v>5</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>36</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>66</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>68</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/distributor_location.xlsx
+++ b/data/distributor_location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\tickin-backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E85D512A-548F-4C71-8FDD-7A5C46575BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3E2CEE-37D6-4697-A44E-ADB4066CD176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -795,13 +795,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="A1:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>

--- a/data/distributor_location.xlsx
+++ b/data/distributor_location.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\tickin-backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3E2CEE-37D6-4697-A44E-ADB4066CD176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE542A7-BD14-424D-9DEF-3411465FB8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$34</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -448,12 +451,66 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -483,17 +540,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFDE9D9"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFDE9D9"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE4DFEC"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE4DFEC"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -796,7 +895,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:E34"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,563 +924,563 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E5" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" s="3">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="5">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="6">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="8">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="C13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="6">
+        <v>7</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" s="6">
+        <v>7</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B18" s="9">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B19" s="10">
+        <v>4</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="11">
+        <v>8</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B21" s="10">
+        <v>4</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="7">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="9">
+        <v>6</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="10">
+        <v>4</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="10">
+        <v>4</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="8">
+        <v>5</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="9">
+        <v>6</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="6">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="8">
+        <v>5</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="9">
+        <v>6</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="7">
+        <v>0</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="8">
+        <v>5</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" s="11">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
-      </c>
-      <c r="E16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B21">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>120</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>123</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>124</v>
-      </c>
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>126</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29">
-        <v>4</v>
-      </c>
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30">
-        <v>4</v>
-      </c>
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="C34" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="11" t="s">
         <v>68</v>
       </c>
     </row>

--- a/data/distributor_location.xlsx
+++ b/data/distributor_location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\tickin-backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE542A7-BD14-424D-9DEF-3411465FB8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA07DB04-649F-41B3-8DBB-29A6952F2753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,40 +559,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFDE9D9"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFDE9D9"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE4DFEC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE4DFEC"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -895,12 +862,12 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>

--- a/data/distributor_location.xlsx
+++ b/data/distributor_location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\tickin-backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA07DB04-649F-41B3-8DBB-29A6952F2753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AB144D-79EB-4E4A-81F3-2D4B40858975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -862,7 +862,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/distributor_location.xlsx
+++ b/data/distributor_location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\tickin-backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AB144D-79EB-4E4A-81F3-2D4B40858975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734D1E68-02B0-4A80-A592-9BE0B7F6BDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="141">
   <si>
     <t>Location</t>
   </si>
@@ -422,6 +422,30 @@
   </si>
   <si>
     <t>D033</t>
+  </si>
+  <si>
+    <t>D034</t>
+  </si>
+  <si>
+    <t>NAGARAJ AGENCY</t>
+  </si>
+  <si>
+    <t>THATHANERI SIDE</t>
+  </si>
+  <si>
+    <t>MAHARAJA DISTRIBUTORS</t>
+  </si>
+  <si>
+    <t>PERUNKUDI SIDE</t>
+  </si>
+  <si>
+    <t>D035</t>
+  </si>
+  <si>
+    <t>D036</t>
+  </si>
+  <si>
+    <t>RD AGENCY RETAILS</t>
   </si>
 </sst>
 </file>
@@ -859,15 +883,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
@@ -1451,6 +1475,53 @@
         <v>68</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="7">
+        <v>0</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="9">
+        <v>2</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/distributor_location.xlsx
+++ b/data/distributor_location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\tickin-backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734D1E68-02B0-4A80-A592-9BE0B7F6BDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D3048E-09D4-47CC-A48A-D6DCBF36CB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -886,12 +886,12 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>

--- a/data/distributor_location.xlsx
+++ b/data/distributor_location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\tickin-backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D3048E-09D4-47CC-A48A-D6DCBF36CB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E6069B-9DB0-4EF9-8C37-00D3F989C05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$35</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="171">
   <si>
     <t>Location</t>
   </si>
@@ -446,13 +446,103 @@
   </si>
   <si>
     <t>RD AGENCY RETAILS</t>
+  </si>
+  <si>
+    <t>final_url</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/W5WF%2B3W5+Braga+Rent+House+Valar+Nagar,+Srinivasa+Ave+Main+Rd,+Valar+Nagar,+Tamil+Nadu+625023/data=!4m6!3m5!1s0x3b00c5007e7ab9f1:0xecb013c2c29ab45e!7e2!8m2!3d9.945111299999999!4d78.1748532?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=d42dd2b5-9b21-4133-94e7-3d9af20fbe5d</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Paandiaraajapuram+Rd,+Nataraja+Nagar,+Madurai,+Tamil+Nadu+625016/data=!4m6!3m5!1s0x3b00cf472863b6b7:0xa3e9bbd88e3fc76c!7e2!8m2!3d9.9400031!4d78.0906997?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=1b33b464-f6b0-4c3c-823a-a0636dbcba12</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/9.979196,78.191548/data=!4m6!3m5!1s0!7e2!8m2!3d9.979196!4d78.191548?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACD67A0qogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=8c3f8a8e-a732-424a-a1bb-3208558078d5</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/42,+EB+Colony,+T+V+S+Nagar,+Madurai,+Tamil+Nadu+625004/data=!4m6!3m5!1s0x3b00cf9880c6e487:0x832f2fde42c14f0!7e2!8m2!3d9.903741499999999!4d78.0883138?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=0e301928-2661-4f57-ab53-e761501a3647</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/X46C%2B238,+Kosakulam,+Madurai,+Tamil+Nadu+625017/data=!4m6!3m5!1s0x3b00c6064e66cd53:0x59cb3fbc499a49ae!7e2!8m2!3d9.960053499999999!4d78.120251?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=98ce2887-c1fb-48f9-bf01-1060073a5ec0</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/X4FM%2B2Q8,+Indira+Nagar+Rd,+Muneeswarar+Nagar,+Iyer+Bungalow,+Sri+Krishna+Nagar,+Tamil+Nadu+625014/data=!4m6!3m5!1s0x3b00c66cb86984ab:0x90a2f869cf0268cd!7e2!8m2!3d9.9725734!4d78.1344621?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=e3bea10c-6972-44ba-a7a4-4871e4fa8fc0</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Madurai+North,+Tamil+Nadu+625501/data=!4m6!3m5!1s0x3b00b885271d8929:0xb311b80b8ef6df12!7e2!8m2!3d10.0546829!4d78.1670398?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=95acf91b-386e-4844-8e84-fa32564342e2</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/JK+CALIBRATION+INDIA+PVT+LTD,+13%2F42,+2nd+Main+Rd,+Alagar+Nagar,+K.Pudur,+Madurai,+Tamil+Nadu+625007/data=!4m6!3m5!1s0x3b00c5ce93a113c1:0x1b5eecf26184f3fb!7e2!8m2!3d9.9520125!4d78.1476545?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=f1979d81-69e0-4bff-b153-3149c2f5dadc</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/DOOR+NO.185,+SRI+CHITRA+TRADERS,+Sikkandar+Savadi,+Koodal+Nagar,+Madurai,+Tamil+Nadu+625018/data=!4m6!3m5!1s0x3b00c92ae97aeeb9:0xccb1abfc3eb7ddc7!7e2!8m2!3d9.9758535!4d78.0987919?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=7be6af40-2c7e-4e7d-8780-1bf0786feedc</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/KANNAN+TEA+STALL,+1+Podhigai+Nagar+Karupasamy+Nagar,+Anaiyur,+Tamil+Nadu+625017/data=!4m6!3m5!1s0x3b00c7dbdf433cb9:0xe2dde715b2de218e!7e2!8m2!3d9.9658258!4d78.11619?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=063039ec-e55c-4e7d-8e08-e939dda09e64</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/51%2F38,+Gnanaolivupuram,+Arappalayam,+Madurai,+Tamil+Nadu+625016/data=!4m6!3m5!1s0x3b00cf683bbff1b3:0x921860de96786b34!7e2!8m2!3d9.9332165!4d78.0974521?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=5eb22019-3785-40ed-9593-938e7527c280</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/5-4-6,+4th+St,+Shanthi+Nagar,+Koodal+Nagar,+Madurai,+Tamil+Nadu+625018/data=!4m6!3m5!1s0x3b00cf4df2f96af5:0xf478910ea2ebca4a!7e2!8m2!3d9.9518706!4d78.0988888?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=1b16adc2-de6c-4725-9c23-e1f0c2372202</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/room,+150,+Theni+Main+Rd,+HMS+Colony,+Ponmeni,+Sambakudi,+Madurai,+Tamil+Nadu+625016/data=!4m6!3m5!1s0x3b00cf006842fc63:0xaafb2430e6832668!7e2!8m2!3d9.9317006!4d78.0848439?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=fa5c0c63-750f-47a5-b5ef-d5029ab47900</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/X4R2%2BV5Q,+Vishaal+Nagar+Phase+II,+Tamil+Nadu+625018/data=!4m6!3m5!1s0x3b00c8857141ed73:0xf4ccae4b9fd8d544!7e2!8m2!3d9.9915145!4d78.1004236?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=4a382840-7bb0-4836-aa83-362eca1cf2d9</t>
+  </si>
+  <si>
+    <t>HOUSE</t>
+  </si>
+  <si>
+    <t>D017A</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Vadipatti,+Tamil+Nadu+625503/data=!4m6!3m5!1s0x3b00b9dfefcfaf89:0x9b8a5023c93f1779!7e2!8m2!3d10.1096164!4d78.1115943?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=680f7e0a-4bca-47b6-8484-d513a1935fd9</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/APA+BLUE+METALS+AND+PAVERS,+P7RG+365+Cumbum.theni,+Tamil+Nadu+625001/data=!4m6!3m5!1s0x3b00c512b60a7247:0x9f2cb88f7cb9072!7e2!8m2!3d9.923233!4d78.12461379999999?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=8bdccee2-e6d6-4e22-b227-eacf0a2ed710</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/MATHINA+AUDIOS+AND+LIGHTINGS,+68c,Pandiya+Vellalar+Street,+Crime+Branch,+S+Marret+St,+Tamil+Nadu+625001/data=!4m6!3m5!1s0x3b00c5d8dcbb985b:0x39ba690ef99a2345!7e2!8m2!3d9.911921!4d78.1160185?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=63a77837-2903-4a0b-9159-c1738f491bc7</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/204,+Chinthamani+Rd,+Nagupillai+thoppu,+Madurai,+Tamil+Nadu+625001/data=!4m6!3m5!1s0x3b00c576f562901f:0x38770804a49a6d4c!7e2!8m2!3d9.910466!4d78.126385?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=eb45e2c4-bdec-4d06-93b6-507de4477193</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/2520,+Koodal+Nagar,+Tamil+Nadu+Housing+Board+Colony,+Anuppanadi,+Madurai,+Tamil+Nadu+625009/data=!4m6!3m5!1s0x3b00c50d383849b7:0xd70603f6418d042e!7e2!8m2!3d9.9040283!4d78.1344344?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=da98d2a1-a2b7-4e8b-bb2a-2d4eaaa6d74c</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Tirupparankundram,+Tamil+Nadu+625006/data=!4m6!3m5!1s0x3b00ce416d7821bd:0x4bcb5c84036e97ba!7e2!8m2!3d9.8926211!4d78.0458187?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=4dffd3c8-d67c-4cb0-b1e9-7a62d57bb7fd</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/RXGH%2BC5Q+MJ+Batteries+%26+inverters,+PRC+depo,+opposite+Tamilthai+nagar,+Tirumangalam,+Tamil+Nadu+625706/data=!4m6!3m5!1s0x3b00d3000377f0a9:0xb2751ae993669bfd!7e2!8m2!3d9.8260861!4d77.9779926?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=c6bddcc1-1f4c-46f8-a6eb-db95d3f31d37</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/9.871581,78.067030/data=!4m6!3m5!1s0!7e2!8m2!3d9.871580999999999!4d78.06703?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACD67A0qogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=c9c2121c-40aa-4e91-8274-0c3a88f76366</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Madurai+West,+Tamil+Nadu+625021/data=!4m6!3m5!1s0x3b00cc1bdf55eb5d:0x60edccbffc003ba5!7e2!8m2!3d9.9365389!4d78.0120685?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=439b18b5-34c1-43d7-9570-4186b7527108</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Rajamanickamnadar+Nagar,+Avaniyapuram,+Madurai,+Tamil+Nadu+625012/data=!4m6!3m5!1s0x3b00daab0a911b7b:0x455273d42f0c9291!7e2!8m2!3d9.8660573!4d78.1151273?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACCenQoqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=a4ef044d-cc0d-49a1-b524-943dd213aeb6</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Madurai,+Tamil+Nadu+625012/data=!4m6!3m5!1s0x3b00cff1df4921f7:0x627e80cca6e434cb!7e2!8m2!3d9.883140899999999!4d78.0994932?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=169fc6ec-4d69-44fc-bb49-b42866759de6</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/9.849421,78.086520/data=!4m6!3m5!1s0!7e2!8m2!3d9.849421!4d78.08652?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDl7Q0qogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=3c220985-541a-4fc9-b339-1836f45f1bc5</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Tirupparankundram,+Tamil+Nadu+625008/data=!4m6!3m5!1s0x3b00d1e298affa35:0x16093824b4405315!7e2!8m2!3d9.8655941!4d78.0324235?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=3f0fe6aa-3348-4fbd-b169-2dee3d79dc97</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +560,20 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -561,10 +665,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -579,8 +684,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -883,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,9 +1005,10 @@
     <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="82.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>99</v>
       </c>
@@ -913,8 +1024,11 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>101</v>
       </c>
@@ -931,7 +1045,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>106</v>
       </c>
@@ -947,8 +1061,11 @@
       <c r="E3" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>114</v>
       </c>
@@ -964,8 +1081,11 @@
       <c r="E4" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>100</v>
       </c>
@@ -981,8 +1101,11 @@
       <c r="E5" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>103</v>
       </c>
@@ -999,7 +1122,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>107</v>
       </c>
@@ -1016,7 +1139,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>109</v>
       </c>
@@ -1033,7 +1156,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>121</v>
       </c>
@@ -1049,8 +1172,11 @@
       <c r="E9" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>102</v>
       </c>
@@ -1066,8 +1192,11 @@
       <c r="E10" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>104</v>
       </c>
@@ -1083,8 +1212,11 @@
       <c r="E11" s="6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>105</v>
       </c>
@@ -1100,8 +1232,11 @@
       <c r="E12" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>108</v>
       </c>
@@ -1117,8 +1252,11 @@
       <c r="E13" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>110</v>
       </c>
@@ -1134,8 +1272,11 @@
       <c r="E14" s="6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>111</v>
       </c>
@@ -1152,7 +1293,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>112</v>
       </c>
@@ -1168,8 +1309,11 @@
       <c r="E16" s="6" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="13" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>113</v>
       </c>
@@ -1185,8 +1329,11 @@
       <c r="E17" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>115</v>
       </c>
@@ -1202,328 +1349,422 @@
       <c r="E18" s="9" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="10">
+      <c r="F18" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="9">
         <v>4</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>52</v>
+      <c r="D19" s="9" t="s">
+        <v>156</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="F19" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="10">
+        <v>4</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B21" s="11">
         <v>8</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E21" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B22" s="10">
         <v>4</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D22" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E22" s="10" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="F22" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B23" s="7">
         <v>0</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E23" s="7" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="F23" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B24" s="9">
         <v>6</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E24" s="9" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="F24" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B25" s="5">
         <v>2</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C25" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+      <c r="F25" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="B25" s="10">
-        <v>4</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>124</v>
       </c>
       <c r="B26" s="10">
         <v>4</v>
       </c>
       <c r="C26" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="10">
+        <v>4</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E27" s="10" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="F27" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B28" s="8">
         <v>5</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E28" s="8" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="F28" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B29" s="9">
         <v>6</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C29" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E29" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="F29" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B30" s="6">
         <v>7</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E30" s="6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="F30" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B31" s="8">
         <v>5</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D31" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E31" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="F31" s="13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B32" s="9">
         <v>6</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="F32" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B33" s="7">
         <v>0</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D33" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E33" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+      <c r="F33" s="13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B34" s="8">
         <v>5</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E34" s="8" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="F34" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B35" s="11">
         <v>8</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D35" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E35" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B36" s="4">
         <v>1</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B37" s="7">
         <v>0</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="9">
+      <c r="B38" s="9">
         <v>2</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C38" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D38" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E38" s="9" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" display="https://www.google.com/maps/place/W5WF%2B3W5+Braga+Rent+House+Valar+Nagar,+Srinivasa+Ave+Main+Rd,+Valar+Nagar,+Tamil+Nadu+625023/data=!4m6!3m5!1s0x3b00c5007e7ab9f1:0xecb013c2c29ab45e!7e2!8m2!3d9.945111299999999!4d78.1748532?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=d42dd2b5-9b21-4133-94e7-3d9af20fbe5d" xr:uid="{E3058BE4-481C-4AB1-8D7A-12F3299CC9F5}"/>
+    <hyperlink ref="F4" r:id="rId2" display="https://www.google.com/maps/place/Paandiaraajapuram+Rd,+Nataraja+Nagar,+Madurai,+Tamil+Nadu+625016/data=!4m6!3m5!1s0x3b00cf472863b6b7:0xa3e9bbd88e3fc76c!7e2!8m2!3d9.9400031!4d78.0906997?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=1b33b464-f6b0-4c3c-823a-a0636dbcba12" xr:uid="{91EE6517-4FC1-4614-BD85-E92AF6AB4872}"/>
+    <hyperlink ref="F5" r:id="rId3" display="https://www.google.com/maps/place/9.979196,78.191548/data=!4m6!3m5!1s0!7e2!8m2!3d9.979196!4d78.191548?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACD67A0qogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=8c3f8a8e-a732-424a-a1bb-3208558078d5" xr:uid="{230D1B81-6B01-4C29-8C4F-8360015F34FB}"/>
+    <hyperlink ref="F9" r:id="rId4" display="https://www.google.com/maps/place/42,+EB+Colony,+T+V+S+Nagar,+Madurai,+Tamil+Nadu+625004/data=!4m6!3m5!1s0x3b00cf9880c6e487:0x832f2fde42c14f0!7e2!8m2!3d9.903741499999999!4d78.0883138?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=0e301928-2661-4f57-ab53-e761501a3647" xr:uid="{D73C9327-8F6D-4C0C-97C5-6015029611B5}"/>
+    <hyperlink ref="F10" r:id="rId5" display="https://www.google.com/maps/place/X46C%2B238,+Kosakulam,+Madurai,+Tamil+Nadu+625017/data=!4m6!3m5!1s0x3b00c6064e66cd53:0x59cb3fbc499a49ae!7e2!8m2!3d9.960053499999999!4d78.120251?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=98ce2887-c1fb-48f9-bf01-1060073a5ec0" xr:uid="{B882C980-6710-46F2-AFBB-3E381151AA41}"/>
+    <hyperlink ref="F11" r:id="rId6" display="https://www.google.com/maps/place/X4FM%2B2Q8,+Indira+Nagar+Rd,+Muneeswarar+Nagar,+Iyer+Bungalow,+Sri+Krishna+Nagar,+Tamil+Nadu+625014/data=!4m6!3m5!1s0x3b00c66cb86984ab:0x90a2f869cf0268cd!7e2!8m2!3d9.9725734!4d78.1344621?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=e3bea10c-6972-44ba-a7a4-4871e4fa8fc0" xr:uid="{93678F58-BCEC-42DE-8E7D-48F07CEF0C82}"/>
+    <hyperlink ref="F12" r:id="rId7" display="https://www.google.com/maps/place/Madurai+North,+Tamil+Nadu+625501/data=!4m6!3m5!1s0x3b00b885271d8929:0xb311b80b8ef6df12!7e2!8m2!3d10.0546829!4d78.1670398?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=95acf91b-386e-4844-8e84-fa32564342e2" xr:uid="{57C90FE4-1B85-45EF-A82A-A710A4C61FA9}"/>
+    <hyperlink ref="F13" r:id="rId8" display="https://www.google.com/maps/place/JK+CALIBRATION+INDIA+PVT+LTD,+13%2F42,+2nd+Main+Rd,+Alagar+Nagar,+K.Pudur,+Madurai,+Tamil+Nadu+625007/data=!4m6!3m5!1s0x3b00c5ce93a113c1:0x1b5eecf26184f3fb!7e2!8m2!3d9.9520125!4d78.1476545?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=f1979d81-69e0-4bff-b153-3149c2f5dadc" xr:uid="{60489C16-254B-4F28-97C0-AC8668AE91FC}"/>
+    <hyperlink ref="F14" r:id="rId9" display="https://www.google.com/maps/place/DOOR+NO.185,+SRI+CHITRA+TRADERS,+Sikkandar+Savadi,+Koodal+Nagar,+Madurai,+Tamil+Nadu+625018/data=!4m6!3m5!1s0x3b00c92ae97aeeb9:0xccb1abfc3eb7ddc7!7e2!8m2!3d9.9758535!4d78.0987919?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=7be6af40-2c7e-4e7d-8780-1bf0786feedc" xr:uid="{EE38116D-77B2-4BC3-BC85-FA4F913F1EBA}"/>
+    <hyperlink ref="F16" r:id="rId10" display="https://www.google.com/maps/place/KANNAN+TEA+STALL,+1+Podhigai+Nagar+Karupasamy+Nagar,+Anaiyur,+Tamil+Nadu+625017/data=!4m6!3m5!1s0x3b00c7dbdf433cb9:0xe2dde715b2de218e!7e2!8m2!3d9.9658258!4d78.11619?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=063039ec-e55c-4e7d-8e08-e939dda09e64" xr:uid="{34F3B681-F4F8-484A-A234-0C51A1B091E0}"/>
+    <hyperlink ref="F17" r:id="rId11" display="https://www.google.com/maps/place/51%2F38,+Gnanaolivupuram,+Arappalayam,+Madurai,+Tamil+Nadu+625016/data=!4m6!3m5!1s0x3b00cf683bbff1b3:0x921860de96786b34!7e2!8m2!3d9.9332165!4d78.0974521?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=5eb22019-3785-40ed-9593-938e7527c280" xr:uid="{71D7F8F2-FE27-4CAC-865C-AF8109AE9441}"/>
+    <hyperlink ref="F18" r:id="rId12" display="https://www.google.com/maps/place/5-4-6,+4th+St,+Shanthi+Nagar,+Koodal+Nagar,+Madurai,+Tamil+Nadu+625018/data=!4m6!3m5!1s0x3b00cf4df2f96af5:0xf478910ea2ebca4a!7e2!8m2!3d9.9518706!4d78.0988888?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=1b16adc2-de6c-4725-9c23-e1f0c2372202" xr:uid="{26AAC4CB-D950-40A6-AD19-4842B1152843}"/>
+    <hyperlink ref="F20" r:id="rId13" display="https://www.google.com/maps/place/room,+150,+Theni+Main+Rd,+HMS+Colony,+Ponmeni,+Sambakudi,+Madurai,+Tamil+Nadu+625016/data=!4m6!3m5!1s0x3b00cf006842fc63:0xaafb2430e6832668!7e2!8m2!3d9.9317006!4d78.0848439?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=fa5c0c63-750f-47a5-b5ef-d5029ab47900" xr:uid="{B1696D25-FCC8-4500-9CE8-0B976D202CA4}"/>
+    <hyperlink ref="F19" r:id="rId14" display="https://www.google.com/maps/place/X4R2%2BV5Q,+Vishaal+Nagar+Phase+II,+Tamil+Nadu+625018/data=!4m6!3m5!1s0x3b00c8857141ed73:0xf4ccae4b9fd8d544!7e2!8m2!3d9.9915145!4d78.1004236?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=4a382840-7bb0-4836-aa83-362eca1cf2d9" xr:uid="{5A7E5557-82EA-4564-B1CD-D603A03A3CA4}"/>
+    <hyperlink ref="F22" r:id="rId15" display="https://www.google.com/maps/place/Vadipatti,+Tamil+Nadu+625503/data=!4m6!3m5!1s0x3b00b9dfefcfaf89:0x9b8a5023c93f1779!7e2!8m2!3d10.1096164!4d78.1115943?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=680f7e0a-4bca-47b6-8484-d513a1935fd9" xr:uid="{5DF2EFBE-6E3E-4BD5-A622-29BE9A6C1403}"/>
+    <hyperlink ref="F23" r:id="rId16" display="https://www.google.com/maps/place/APA+BLUE+METALS+AND+PAVERS,+P7RG+365+Cumbum.theni,+Tamil+Nadu+625001/data=!4m6!3m5!1s0x3b00c512b60a7247:0x9f2cb88f7cb9072!7e2!8m2!3d9.923233!4d78.12461379999999?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=8bdccee2-e6d6-4e22-b227-eacf0a2ed710" xr:uid="{3B07C97A-B153-4A60-BCB0-23CA778A5E27}"/>
+    <hyperlink ref="F24" r:id="rId17" display="https://www.google.com/maps/place/MATHINA+AUDIOS+AND+LIGHTINGS,+68c,Pandiya+Vellalar+Street,+Crime+Branch,+S+Marret+St,+Tamil+Nadu+625001/data=!4m6!3m5!1s0x3b00c5d8dcbb985b:0x39ba690ef99a2345!7e2!8m2!3d9.911921!4d78.1160185?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=63a77837-2903-4a0b-9159-c1738f491bc7" xr:uid="{C43FFC47-F892-43CD-8B26-825C44A9ECB7}"/>
+    <hyperlink ref="F25" r:id="rId18" display="https://www.google.com/maps/place/204,+Chinthamani+Rd,+Nagupillai+thoppu,+Madurai,+Tamil+Nadu+625001/data=!4m6!3m5!1s0x3b00c576f562901f:0x38770804a49a6d4c!7e2!8m2!3d9.910466!4d78.126385?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=eb45e2c4-bdec-4d06-93b6-507de4477193" xr:uid="{C0CDBD50-DBD3-4072-9B15-2B9652B8722D}"/>
+    <hyperlink ref="F26" r:id="rId19" display="https://www.google.com/maps/place/2520,+Koodal+Nagar,+Tamil+Nadu+Housing+Board+Colony,+Anuppanadi,+Madurai,+Tamil+Nadu+625009/data=!4m6!3m5!1s0x3b00c50d383849b7:0xd70603f6418d042e!7e2!8m2!3d9.9040283!4d78.1344344?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=da98d2a1-a2b7-4e8b-bb2a-2d4eaaa6d74c" xr:uid="{99F7CEA6-CD37-4CDE-96D6-7C7C7401C46D}"/>
+    <hyperlink ref="F27" r:id="rId20" display="https://www.google.com/maps/place/Tirupparankundram,+Tamil+Nadu+625006/data=!4m6!3m5!1s0x3b00ce416d7821bd:0x4bcb5c84036e97ba!7e2!8m2!3d9.8926211!4d78.0458187?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=4dffd3c8-d67c-4cb0-b1e9-7a62d57bb7fd" xr:uid="{30AB10AB-ACED-4183-ACC9-3D9D6D8992B3}"/>
+    <hyperlink ref="F28" r:id="rId21" display="https://www.google.com/maps/place/RXGH%2BC5Q+MJ+Batteries+%26+inverters,+PRC+depo,+opposite+Tamilthai+nagar,+Tirumangalam,+Tamil+Nadu+625706/data=!4m6!3m5!1s0x3b00d3000377f0a9:0xb2751ae993669bfd!7e2!8m2!3d9.8260861!4d77.9779926?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=c6bddcc1-1f4c-46f8-a6eb-db95d3f31d37" xr:uid="{B2E5EA7D-C187-4419-94DA-17B7BCA63B16}"/>
+    <hyperlink ref="F29" r:id="rId22" display="https://www.google.com/maps/place/9.871581,78.067030/data=!4m6!3m5!1s0!7e2!8m2!3d9.871580999999999!4d78.06703?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACD67A0qogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=c9c2121c-40aa-4e91-8274-0c3a88f76366" xr:uid="{F804E598-0828-44F6-B3E5-C85473B113AA}"/>
+    <hyperlink ref="F30" r:id="rId23" display="https://www.google.com/maps/place/Madurai+West,+Tamil+Nadu+625021/data=!4m6!3m5!1s0x3b00cc1bdf55eb5d:0x60edccbffc003ba5!7e2!8m2!3d9.9365389!4d78.0120685?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=439b18b5-34c1-43d7-9570-4186b7527108" xr:uid="{0A00A04D-6B8E-4D3B-BAC6-DF4D4B4B2BD3}"/>
+    <hyperlink ref="F31" r:id="rId24" display="https://www.google.com/maps/place/Rajamanickamnadar+Nagar,+Avaniyapuram,+Madurai,+Tamil+Nadu+625012/data=!4m6!3m5!1s0x3b00daab0a911b7b:0x455273d42f0c9291!7e2!8m2!3d9.8660573!4d78.1151273?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACCenQoqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=a4ef044d-cc0d-49a1-b524-943dd213aeb6" xr:uid="{173676D2-5125-4D4E-90D4-D27F45F702D9}"/>
+    <hyperlink ref="F32" r:id="rId25" display="https://www.google.com/maps/place/Madurai,+Tamil+Nadu+625012/data=!4m6!3m5!1s0x3b00cff1df4921f7:0x627e80cca6e434cb!7e2!8m2!3d9.883140899999999!4d78.0994932?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=169fc6ec-4d69-44fc-bb49-b42866759de6" xr:uid="{F8367F83-247F-4DD7-A596-8CD24F849548}"/>
+    <hyperlink ref="F33" r:id="rId26" display="https://www.google.com/maps/place/9.849421,78.086520/data=!4m6!3m5!1s0!7e2!8m2!3d9.849421!4d78.08652?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDl7Q0qogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=3c220985-541a-4fc9-b339-1836f45f1bc5" xr:uid="{7AD27333-AEB7-417A-AD42-326039700CE5}"/>
+    <hyperlink ref="F34" r:id="rId27" display="https://www.google.com/maps/place/Tirupparankundram,+Tamil+Nadu+625008/data=!4m6!3m5!1s0x3b00d1e298affa35:0x16093824b4405315!7e2!8m2!3d9.8655941!4d78.0324235?utm_source=mstt_1&amp;entry=gps&amp;coh=192189&amp;g_ep=CAESBzI1LjQ3LjgYACDXggMqogEsOTQyNjc3MjcsOTQyNzU0MDcsOTQyOTIxOTUsOTQyODQ0NjYsOTQyMjMyOTksOTQyMTY0MTMsOTQyODA1NzYsOTQyMTI0OTYsOTQyMDczOTQsOTQyMDc1MDYsOTQyMDg1MDYsOTQyMTc1MjMsOTQyMTg2NTMsOTQyMjk4MzksOTQyNzUxNjgsOTQyNzk2MTksNDcwODQzOTMsOTQyMTMyMDBCAklO&amp;skid=3f0fe6aa-3348-4fbd-b169-2dee3d79dc97" xr:uid="{F3E1DEF5-E197-4218-B806-B0D214B64BD3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/distributor_location.xlsx
+++ b/data/distributor_location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\tickin-backend\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E6069B-9DB0-4EF9-8C37-00D3F989C05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DEF117-A87F-4A28-9C4B-95CD44392D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -995,13 +995,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="7.5703125" customWidth="1"/>
     <col min="3" max="3" width="35.5703125" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
